--- a/public/file_nilai/153855883nilai_kelas5_import.xlsx
+++ b/public/file_nilai/153855883nilai_kelas5_import.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alirena\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\pbpm\public\file_nilai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE82A85-8316-4818-AFAF-46646F76C995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC005F90-A117-41D7-B411-32C423E0FAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13587" yWindow="0" windowWidth="13887" windowHeight="14799" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,46 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="148">
-  <si>
-    <t>Apriana Patrisia</t>
-  </si>
-  <si>
-    <t>Febiela Kasipka</t>
-  </si>
-  <si>
-    <t>Frisky Rirung</t>
-  </si>
-  <si>
-    <t>Gabriela Maria Sumolang</t>
-  </si>
-  <si>
-    <t>Gomerio Kogoya</t>
-  </si>
-  <si>
-    <t>Harun Agapa</t>
-  </si>
-  <si>
-    <t>Kevin Fringkeuw</t>
-  </si>
-  <si>
-    <t>Listra Lipyi</t>
-  </si>
-  <si>
-    <t>Muhamad Yusuf Ahmad</t>
-  </si>
-  <si>
-    <t>Marsela Almung</t>
-  </si>
-  <si>
-    <t>Natalia Kasipka</t>
-  </si>
-  <si>
-    <t>Naura</t>
-  </si>
-  <si>
-    <t>Petrus Uropkulin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="117">
   <si>
     <t>kelas</t>
   </si>
@@ -276,63 +236,6 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>Aprilia</t>
-  </si>
-  <si>
-    <t>Rahel Uropmabin</t>
-  </si>
-  <si>
-    <t>Robi Izak Jikwa</t>
-  </si>
-  <si>
-    <t>Selpina Kakyarmabin</t>
-  </si>
-  <si>
-    <t>Zaskia Nurfadila Aras</t>
-  </si>
-  <si>
-    <t>Denisa Uropkulin</t>
-  </si>
-  <si>
-    <t>Golda Sima Alimdam</t>
-  </si>
-  <si>
-    <t>Hendrik Andreas Almung</t>
-  </si>
-  <si>
-    <t>Jenepia Taplo</t>
-  </si>
-  <si>
-    <t>Johan Markus Kilanki</t>
-  </si>
-  <si>
-    <t>Lisa Uropkulin</t>
-  </si>
-  <si>
-    <t>Merlin Almung</t>
-  </si>
-  <si>
-    <t>Mila Dumkon Bamulki</t>
-  </si>
-  <si>
-    <t>Wilem Bidana</t>
-  </si>
-  <si>
-    <t>Yemis Bidana</t>
-  </si>
-  <si>
-    <t>Kadakon Ningmabin</t>
-  </si>
-  <si>
-    <t>Tinip Uopdana</t>
-  </si>
-  <si>
-    <t>Jesica Putri Maharani</t>
-  </si>
-  <si>
-    <t>Ekelunok Alwoka</t>
-  </si>
-  <si>
     <t>APRIANA PATRISIA</t>
   </si>
   <si>
@@ -478,6 +381,9 @@
   </si>
   <si>
     <t>TOTO NUMBALI UROPKA</t>
+  </si>
+  <si>
+    <t>tahun_pelajaran</t>
   </si>
 </sst>
 </file>
@@ -1180,71 +1086,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="F21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.875" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="24" width="9" customWidth="1"/>
-    <col min="25" max="28" width="9.125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="8.625" hidden="1" customWidth="1"/>
-    <col min="30" max="34" width="9.125" hidden="1" customWidth="1"/>
+    <col min="25" max="28" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="30" max="34" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1254,10 +1162,10 @@
         <v>2022</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1275,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="K2">
         <v>619</v>
@@ -1283,6 +1191,9 @@
       <c r="L2" s="1">
         <v>45</v>
       </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1292,10 +1203,10 @@
         <v>2022</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1313,7 +1224,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="K3">
         <v>620</v>
@@ -1321,6 +1232,9 @@
       <c r="L3" s="1">
         <v>56</v>
       </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1330,10 +1244,10 @@
         <v>2022</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1351,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="K4">
         <v>621</v>
@@ -1359,6 +1273,9 @@
       <c r="L4" s="1">
         <v>45</v>
       </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1368,10 +1285,10 @@
         <v>2022</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1389,7 +1306,7 @@
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="K5">
         <v>622</v>
@@ -1397,6 +1314,9 @@
       <c r="L5" s="1">
         <v>34</v>
       </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1406,10 +1326,10 @@
         <v>2022</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1427,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="K6">
         <v>623</v>
@@ -1435,6 +1355,9 @@
       <c r="L6" s="1">
         <v>30</v>
       </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1444,10 +1367,10 @@
         <v>2022</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1465,7 +1388,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="K7">
         <v>624</v>
@@ -1473,6 +1396,9 @@
       <c r="L7" s="1">
         <v>55</v>
       </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1482,10 +1408,10 @@
         <v>2022</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1503,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="K8">
         <v>625</v>
@@ -1511,6 +1437,9 @@
       <c r="L8" s="1">
         <v>35</v>
       </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1520,10 +1449,10 @@
         <v>2022</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1541,7 +1470,7 @@
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="K9">
         <v>626</v>
@@ -1549,6 +1478,9 @@
       <c r="L9" s="1">
         <v>23</v>
       </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1558,10 +1490,10 @@
         <v>2022</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1579,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K10">
         <v>627</v>
@@ -1587,6 +1519,9 @@
       <c r="L10" s="1">
         <v>23</v>
       </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1596,10 +1531,10 @@
         <v>2022</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1617,7 +1552,7 @@
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="K11">
         <v>628</v>
@@ -1625,6 +1560,9 @@
       <c r="L11" s="1">
         <v>56</v>
       </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1634,10 +1572,10 @@
         <v>2022</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1655,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="K12">
         <v>629</v>
@@ -1663,6 +1601,9 @@
       <c r="L12" s="1">
         <v>37</v>
       </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1672,10 +1613,10 @@
         <v>2022</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1693,7 +1634,7 @@
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="K13">
         <v>630</v>
@@ -1701,6 +1642,9 @@
       <c r="L13" s="1">
         <v>66</v>
       </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1710,10 +1654,10 @@
         <v>2022</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1731,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="K14">
         <v>631</v>
@@ -1739,6 +1683,9 @@
       <c r="L14" s="1">
         <v>56</v>
       </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1748,10 +1695,10 @@
         <v>2022</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1769,7 +1716,7 @@
         <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="K15">
         <v>632</v>
@@ -1777,6 +1724,9 @@
       <c r="L15" s="1">
         <v>45</v>
       </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1786,10 +1736,10 @@
         <v>2022</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1807,7 +1757,7 @@
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="K16">
         <v>633</v>
@@ -1815,8 +1765,11 @@
       <c r="L16" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -1824,10 +1777,10 @@
         <v>2022</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1845,7 +1798,7 @@
         <v>5</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="K17">
         <v>634</v>
@@ -1853,8 +1806,11 @@
       <c r="L17" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -1862,10 +1818,10 @@
         <v>2022</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1883,7 +1839,7 @@
         <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="K18">
         <v>635</v>
@@ -1891,8 +1847,11 @@
       <c r="L18" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2021</v>
       </c>
@@ -1900,10 +1859,10 @@
         <v>2022</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1921,7 +1880,7 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="K19">
         <v>636</v>
@@ -1929,8 +1888,11 @@
       <c r="L19" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -1938,10 +1900,10 @@
         <v>2022</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1959,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="K20">
         <v>637</v>
@@ -1967,8 +1929,11 @@
       <c r="L20" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2021</v>
       </c>
@@ -1976,10 +1941,10 @@
         <v>2022</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1997,7 +1962,7 @@
         <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="K21">
         <v>638</v>
@@ -2005,8 +1970,11 @@
       <c r="L21" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2021</v>
       </c>
@@ -2014,10 +1982,10 @@
         <v>2022</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2035,7 +2003,7 @@
         <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="K22">
         <v>639</v>
@@ -2043,8 +2011,11 @@
       <c r="L22" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -2052,10 +2023,10 @@
         <v>2022</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2073,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="K23">
         <v>640</v>
@@ -2081,8 +2052,11 @@
       <c r="L23" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2021</v>
       </c>
@@ -2090,10 +2064,10 @@
         <v>2022</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2111,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="K24">
         <v>641</v>
@@ -2119,8 +2093,11 @@
       <c r="L24" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2021</v>
       </c>
@@ -2128,10 +2105,10 @@
         <v>2022</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2149,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="K25">
         <v>642</v>
@@ -2157,8 +2134,11 @@
       <c r="L25" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -2166,10 +2146,10 @@
         <v>2022</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2187,7 +2167,7 @@
         <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="K26">
         <v>643</v>
@@ -2195,8 +2175,11 @@
       <c r="L26" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2021</v>
       </c>
@@ -2204,10 +2187,10 @@
         <v>2022</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2225,7 +2208,7 @@
         <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="K27">
         <v>644</v>
@@ -2233,8 +2216,11 @@
       <c r="L27" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -2242,10 +2228,10 @@
         <v>2022</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2263,7 +2249,7 @@
         <v>5</v>
       </c>
       <c r="J28" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="K28">
         <v>645</v>
@@ -2271,8 +2257,11 @@
       <c r="L28" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2021</v>
       </c>
@@ -2280,10 +2269,10 @@
         <v>2022</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2301,7 +2290,7 @@
         <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="K29">
         <v>646</v>
@@ -2309,8 +2298,11 @@
       <c r="L29" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2021</v>
       </c>
@@ -2318,10 +2310,10 @@
         <v>2022</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2339,7 +2331,7 @@
         <v>5</v>
       </c>
       <c r="J30" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="K30">
         <v>647</v>
@@ -2347,8 +2339,11 @@
       <c r="L30" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2021</v>
       </c>
@@ -2356,10 +2351,10 @@
         <v>2022</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2377,7 +2372,7 @@
         <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K31">
         <v>648</v>
@@ -2385,8 +2380,11 @@
       <c r="L31" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2021</v>
       </c>
@@ -2394,10 +2392,10 @@
         <v>2022</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2415,7 +2413,7 @@
         <v>5</v>
       </c>
       <c r="J32" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="K32">
         <v>649</v>
@@ -2423,8 +2421,11 @@
       <c r="L32" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2021</v>
       </c>
@@ -2432,10 +2433,10 @@
         <v>2022</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2453,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="J33" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="K33">
         <v>650</v>
@@ -2461,8 +2462,11 @@
       <c r="L33" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2021</v>
       </c>
@@ -2470,10 +2474,10 @@
         <v>2022</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2491,7 +2495,7 @@
         <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="K34">
         <v>651</v>
@@ -2499,8 +2503,11 @@
       <c r="L34" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -2508,10 +2515,10 @@
         <v>2022</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2529,7 +2536,7 @@
         <v>5</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="K35">
         <v>652</v>
@@ -2537,8 +2544,11 @@
       <c r="L35" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2021</v>
       </c>
@@ -2546,10 +2556,10 @@
         <v>2022</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2567,7 +2577,7 @@
         <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K36">
         <v>653</v>
@@ -2575,8 +2585,11 @@
       <c r="L36" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2021</v>
       </c>
@@ -2584,10 +2597,10 @@
         <v>2022</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2605,7 +2618,7 @@
         <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="K37">
         <v>654</v>
@@ -2613,8 +2626,11 @@
       <c r="L37" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2021</v>
       </c>
@@ -2622,10 +2638,10 @@
         <v>2022</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2643,7 +2659,7 @@
         <v>5</v>
       </c>
       <c r="J38" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="K38">
         <v>655</v>
@@ -2651,8 +2667,11 @@
       <c r="L38" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2021</v>
       </c>
@@ -2660,10 +2679,10 @@
         <v>2022</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2681,7 +2700,7 @@
         <v>5</v>
       </c>
       <c r="J39" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="K39">
         <v>656</v>
@@ -2689,8 +2708,11 @@
       <c r="L39" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2021</v>
       </c>
@@ -2698,10 +2720,10 @@
         <v>2022</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2719,7 +2741,7 @@
         <v>5</v>
       </c>
       <c r="J40" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="K40">
         <v>657</v>
@@ -2727,8 +2749,11 @@
       <c r="L40" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2021</v>
       </c>
@@ -2736,10 +2761,10 @@
         <v>2022</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2757,7 +2782,7 @@
         <v>5</v>
       </c>
       <c r="J41" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="K41">
         <v>658</v>
@@ -2765,8 +2790,11 @@
       <c r="L41" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2021</v>
       </c>
@@ -2774,10 +2802,10 @@
         <v>2022</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2795,7 +2823,7 @@
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="K42">
         <v>659</v>
@@ -2803,8 +2831,11 @@
       <c r="L42" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2021</v>
       </c>
@@ -2812,10 +2843,10 @@
         <v>2022</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2833,7 +2864,7 @@
         <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="K43">
         <v>660</v>
@@ -2841,8 +2872,11 @@
       <c r="L43" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2021</v>
       </c>
@@ -2850,10 +2884,10 @@
         <v>2022</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2871,7 +2905,7 @@
         <v>5</v>
       </c>
       <c r="J44" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="K44">
         <v>661</v>
@@ -2879,8 +2913,11 @@
       <c r="L44" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2021</v>
       </c>
@@ -2888,10 +2925,10 @@
         <v>2022</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2909,7 +2946,7 @@
         <v>5</v>
       </c>
       <c r="J45" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="K45">
         <v>662</v>
@@ -2917,8 +2954,11 @@
       <c r="L45" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -2926,10 +2966,10 @@
         <v>2022</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2947,7 +2987,7 @@
         <v>5</v>
       </c>
       <c r="J46" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="K46">
         <v>663</v>
@@ -2955,8 +2995,11 @@
       <c r="L46" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2021</v>
       </c>
@@ -2964,10 +3007,10 @@
         <v>2022</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2985,7 +3028,7 @@
         <v>5</v>
       </c>
       <c r="J47" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="K47">
         <v>664</v>
@@ -2993,8 +3036,11 @@
       <c r="L47" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2021</v>
       </c>
@@ -3002,10 +3048,10 @@
         <v>2022</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3023,7 +3069,7 @@
         <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="K48">
         <v>665</v>
@@ -3031,8 +3077,11 @@
       <c r="L48" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2021</v>
       </c>
@@ -3040,10 +3089,10 @@
         <v>2022</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3061,7 +3110,7 @@
         <v>5</v>
       </c>
       <c r="J49" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="K49">
         <v>666</v>
@@ -3069,8 +3118,11 @@
       <c r="L49" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2021</v>
       </c>
@@ -3078,10 +3130,10 @@
         <v>2022</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3099,13 +3151,91 @@
         <v>5</v>
       </c>
       <c r="J50" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="K50">
         <v>667</v>
       </c>
       <c r="L50" s="1">
         <v>67</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3120,86 +3250,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="2.875" customWidth="1"/>
-    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
-    <col min="11" max="11" width="2.25" customWidth="1"/>
-    <col min="12" max="13" width="9.125" customWidth="1"/>
-    <col min="14" max="14" width="2.25" customWidth="1"/>
-    <col min="15" max="15" width="15.625" customWidth="1"/>
-    <col min="16" max="16" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="2.28515625" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="2.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>619</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -3207,31 +3337,31 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>620</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -3239,25 +3369,25 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>621</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M4">
         <v>3</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -3265,25 +3395,25 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>622</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M5">
         <v>4</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="P5">
         <v>4</v>
@@ -3291,31 +3421,31 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>623</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P6">
         <v>5</v>
@@ -3323,31 +3453,31 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>624</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="M7">
-        <v>6</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="P7">
         <v>6</v>
@@ -3355,25 +3485,25 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>625</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P8">
         <v>7</v>
@@ -3381,25 +3511,25 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>626</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J9">
         <v>8</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="P9">
         <v>8</v>
@@ -3407,25 +3537,25 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>627</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J10">
         <v>9</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="P10">
         <v>9</v>
@@ -3433,25 +3563,25 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>628</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="P11">
         <v>10</v>
@@ -3459,19 +3589,19 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>629</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>6</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P12">
         <v>11</v>
@@ -3479,19 +3609,19 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>630</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>7</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="P13">
         <v>12</v>
@@ -3499,19 +3629,19 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>631</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>8</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P14">
         <v>13</v>
@@ -3519,19 +3649,19 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B15">
-        <v>64</v>
+        <v>632</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>9</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="P15">
         <v>14</v>
@@ -3539,19 +3669,19 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B16">
-        <v>65</v>
+        <v>633</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>10</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="P16">
         <v>15</v>
@@ -3559,19 +3689,19 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B17">
-        <v>66</v>
+        <v>634</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>11</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="P17">
         <v>16</v>
@@ -3579,19 +3709,19 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B18">
-        <v>67</v>
+        <v>635</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G18">
         <v>12</v>
       </c>
       <c r="O18" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="P18">
         <v>17</v>
@@ -3599,13 +3729,13 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="B19">
-        <v>68</v>
+        <v>636</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -3613,114 +3743,250 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B20">
-        <v>69</v>
+        <v>637</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B21">
-        <v>70</v>
+        <v>638</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B22">
-        <v>71</v>
+        <v>639</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="B23">
-        <v>72</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="B24">
-        <v>73</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="B25">
-        <v>74</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>643</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B27">
-        <v>76</v>
+        <v>644</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B28">
-        <v>77</v>
+        <v>645</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B29">
-        <v>78</v>
+        <v>646</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30">
-        <v>79</v>
+        <v>647</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B31">
-        <v>80</v>
+        <v>648</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B32">
-        <v>81</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B33">
-        <v>82</v>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50">
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -3733,16 +3999,4 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>